--- a/MonteCarloResultsBUS4.xlsx
+++ b/MonteCarloResultsBUS4.xlsx
@@ -612,28 +612,28 @@
         <v>220</v>
       </c>
       <c r="F2">
-        <v>-2.516041508576057</v>
+        <v>2.250458743390199</v>
       </c>
       <c r="G2">
-        <v>445</v>
+        <v>12375</v>
       </c>
       <c r="H2">
-        <v>3.115368249944736</v>
+        <v>3.002793920877493</v>
       </c>
       <c r="I2">
-        <v>-0.8076225045372051</v>
+        <v>0.7494549418604651</v>
       </c>
       <c r="J2">
-        <v>-177.6769509981851</v>
+        <v>164.8800872093023</v>
       </c>
       <c r="K2">
-        <v>-553.5291318867324</v>
+        <v>495.1009235458438</v>
       </c>
       <c r="L2">
-        <v>685.3810149878418</v>
+        <v>660.6146625930484</v>
       </c>
       <c r="M2">
-        <v>-1.371242622173951</v>
+        <v>1.226500015147659</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -653,28 +653,28 @@
         <v>220</v>
       </c>
       <c r="F3">
-        <v>-2.356501643191086</v>
+        <v>2.286883798615791</v>
       </c>
       <c r="G3">
-        <v>457</v>
+        <v>12469</v>
       </c>
       <c r="H3">
-        <v>2.841208764547678</v>
+        <v>3.028392435860449</v>
       </c>
       <c r="I3">
-        <v>-0.8294010889292196</v>
+        <v>0.7551477713178295</v>
       </c>
       <c r="J3">
-        <v>-182.4682395644283</v>
+        <v>166.1325096899225</v>
       </c>
       <c r="K3">
-        <v>-518.430361502039</v>
+        <v>503.114435695474</v>
       </c>
       <c r="L3">
-        <v>625.0659282004891</v>
+        <v>666.2463358892987</v>
       </c>
       <c r="M3">
-        <v>-1.284293395539142</v>
+        <v>1.246351670245606</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -694,28 +694,28 @@
         <v>220</v>
       </c>
       <c r="F4">
-        <v>-2.207977330210533</v>
+        <v>2.274362911329566</v>
       </c>
       <c r="G4">
-        <v>448</v>
+        <v>12365</v>
       </c>
       <c r="H4">
-        <v>2.715614975325901</v>
+        <v>3.037143582035891</v>
       </c>
       <c r="I4">
-        <v>-0.8130671506352087</v>
+        <v>0.7488493217054264</v>
       </c>
       <c r="J4">
-        <v>-178.8747731397459</v>
+        <v>164.7468507751938</v>
       </c>
       <c r="K4">
-        <v>-485.7550126463172</v>
+        <v>500.3598404925044</v>
       </c>
       <c r="L4">
-        <v>597.4352945716983</v>
+        <v>668.171588047896</v>
       </c>
       <c r="M4">
-        <v>-1.20334764496474</v>
+        <v>1.239527786674613</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -735,28 +735,28 @@
         <v>220</v>
       </c>
       <c r="F5">
-        <v>-2.462703924272009</v>
+        <v>2.32431419155196</v>
       </c>
       <c r="G5">
-        <v>454</v>
+        <v>12566</v>
       </c>
       <c r="H5">
-        <v>2.988876348620875</v>
+        <v>3.054199899005726</v>
       </c>
       <c r="I5">
-        <v>-0.8239564428312159</v>
+        <v>0.7610222868217055</v>
       </c>
       <c r="J5">
-        <v>-181.2704174228675</v>
+        <v>167.4249031007752</v>
       </c>
       <c r="K5">
-        <v>-541.7948633398421</v>
+        <v>511.3491221414312</v>
       </c>
       <c r="L5">
-        <v>657.5527966965925</v>
+        <v>671.9239777812599</v>
       </c>
       <c r="M5">
-        <v>-1.342173638728245</v>
+        <v>1.266751234395818</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -776,28 +776,28 @@
         <v>200</v>
       </c>
       <c r="F6">
-        <v>-2.377497507588</v>
+        <v>2.32608049785891</v>
       </c>
       <c r="G6">
-        <v>450</v>
+        <v>12574</v>
       </c>
       <c r="H6">
-        <v>2.91111361484664</v>
+        <v>3.054576203328004</v>
       </c>
       <c r="I6">
-        <v>-0.8166969147005445</v>
+        <v>0.7615067829457365</v>
       </c>
       <c r="J6">
-        <v>-163.3393829401089</v>
+        <v>152.3013565891473</v>
       </c>
       <c r="K6">
-        <v>-475.4995015176</v>
+        <v>465.216099571782</v>
       </c>
       <c r="L6">
-        <v>582.2227229693281</v>
+        <v>610.9152406656008</v>
       </c>
       <c r="M6">
-        <v>-1.188748753794</v>
+        <v>1.163040248929455</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -817,28 +817,28 @@
         <v>10</v>
       </c>
       <c r="F7">
-        <v>-2.384487940598597</v>
+        <v>2.294061993996041</v>
       </c>
       <c r="G7">
-        <v>454</v>
+        <v>12560</v>
       </c>
       <c r="H7">
-        <v>2.893949020418121</v>
+        <v>3.015887869813903</v>
       </c>
       <c r="I7">
-        <v>-0.8239564428312159</v>
+        <v>0.7606589147286822</v>
       </c>
       <c r="J7">
-        <v>-8.239564428312159</v>
+        <v>7.606589147286822</v>
       </c>
       <c r="K7">
-        <v>-23.84487940598597</v>
+        <v>22.94061993996041</v>
       </c>
       <c r="L7">
-        <v>28.93949020418121</v>
+        <v>30.15887869813903</v>
       </c>
       <c r="M7">
-        <v>-0.9895624953484177</v>
+        <v>0.9520357275083569</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -858,28 +858,28 @@
         <v>10</v>
       </c>
       <c r="F8">
-        <v>-2.440594767142912</v>
+        <v>2.303826623108151</v>
       </c>
       <c r="G8">
-        <v>454</v>
+        <v>12552</v>
       </c>
       <c r="H8">
-        <v>2.962043428845253</v>
+        <v>3.030655290054317</v>
       </c>
       <c r="I8">
-        <v>-0.8239564428312159</v>
+        <v>0.7601744186046512</v>
       </c>
       <c r="J8">
-        <v>-8.239564428312159</v>
+        <v>7.601744186046512</v>
       </c>
       <c r="K8">
-        <v>-24.40594767142912</v>
+        <v>23.03826623108151</v>
       </c>
       <c r="L8">
-        <v>29.62043428845253</v>
+        <v>30.30655290054317</v>
       </c>
       <c r="M8">
-        <v>-1.012846828364309</v>
+        <v>0.9560880485898827</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -899,28 +899,28 @@
         <v>1</v>
       </c>
       <c r="F9">
-        <v>-2.219114470417987</v>
+        <v>2.118560624955769</v>
       </c>
       <c r="G9">
-        <v>436</v>
+        <v>12139</v>
       </c>
       <c r="H9">
-        <v>2.804431360551172</v>
+        <v>2.881759044342174</v>
       </c>
       <c r="I9">
-        <v>-0.7912885662431942</v>
+        <v>0.7351623062015504</v>
       </c>
       <c r="J9">
-        <v>-0.7912885662431942</v>
+        <v>0.7351623062015504</v>
       </c>
       <c r="K9">
-        <v>-2.219114470417987</v>
+        <v>2.118560624955769</v>
       </c>
       <c r="L9">
-        <v>2.804431360551172</v>
+        <v>2.881759044342174</v>
       </c>
       <c r="M9">
-        <v>-2.219114470417987</v>
+        <v>2.118560624955769</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -940,28 +940,28 @@
         <v>1</v>
       </c>
       <c r="F10">
-        <v>-2.277527861915754</v>
+        <v>2.14372820931401</v>
       </c>
       <c r="G10">
-        <v>451</v>
+        <v>12243</v>
       </c>
       <c r="H10">
-        <v>2.782522953249624</v>
+        <v>2.891222755222815</v>
       </c>
       <c r="I10">
-        <v>-0.8185117967332124</v>
+        <v>0.7414607558139535</v>
       </c>
       <c r="J10">
-        <v>-0.8185117967332124</v>
+        <v>0.7414607558139535</v>
       </c>
       <c r="K10">
-        <v>-2.277527861915754</v>
+        <v>2.14372820931401</v>
       </c>
       <c r="L10">
-        <v>2.782522953249624</v>
+        <v>2.891222755222815</v>
       </c>
       <c r="M10">
-        <v>-3.416291792873631</v>
+        <v>3.215592313971015</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -981,28 +981,28 @@
         <v>1</v>
       </c>
       <c r="F11">
-        <v>-2.268386089592654</v>
+        <v>2.151646904642834</v>
       </c>
       <c r="G11">
-        <v>444</v>
+        <v>12285</v>
       </c>
       <c r="H11">
-        <v>2.815046701273767</v>
+        <v>2.891981578303824</v>
       </c>
       <c r="I11">
-        <v>-0.8058076225045372</v>
+        <v>0.7440043604651163</v>
       </c>
       <c r="J11">
-        <v>-0.8058076225045372</v>
+        <v>0.7440043604651163</v>
       </c>
       <c r="K11">
-        <v>-2.268386089592654</v>
+        <v>2.151646904642834</v>
       </c>
       <c r="L11">
-        <v>2.815046701273767</v>
+        <v>2.891981578303824</v>
       </c>
       <c r="M11">
-        <v>-2.268386089592654</v>
+        <v>2.151646904642834</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -1022,28 +1022,28 @@
         <v>220</v>
       </c>
       <c r="F12">
-        <v>-2.356286216465724</v>
+        <v>2.34345458626213</v>
       </c>
       <c r="G12">
-        <v>459</v>
+        <v>12614</v>
       </c>
       <c r="H12">
-        <v>2.828570163992623</v>
+        <v>3.067632957694648</v>
       </c>
       <c r="I12">
-        <v>-0.8330308529945554</v>
+        <v>0.7639292635658915</v>
       </c>
       <c r="J12">
-        <v>-183.2667876588022</v>
+        <v>168.0644379844961</v>
       </c>
       <c r="K12">
-        <v>-518.3829676224592</v>
+        <v>515.5600089776686</v>
       </c>
       <c r="L12">
-        <v>622.285436078377</v>
+        <v>674.8792506928226</v>
       </c>
       <c r="M12">
-        <v>-1.28417598797382</v>
+        <v>1.277182749512861</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1063,28 +1063,28 @@
         <v>220</v>
       </c>
       <c r="F13">
-        <v>-2.408988842102975</v>
+        <v>2.305502285423179</v>
       </c>
       <c r="G13">
-        <v>458</v>
+        <v>12514</v>
       </c>
       <c r="H13">
-        <v>2.898150331874976</v>
+        <v>3.042069181469357</v>
       </c>
       <c r="I13">
-        <v>-0.8312159709618875</v>
+        <v>0.7578730620155039</v>
       </c>
       <c r="J13">
-        <v>-182.8675136116152</v>
+        <v>166.7320736434108</v>
       </c>
       <c r="K13">
-        <v>-529.9775452626544</v>
+        <v>507.2105027930995</v>
       </c>
       <c r="L13">
-        <v>637.5930730124948</v>
+        <v>669.2552199232587</v>
       </c>
       <c r="M13">
-        <v>-1.312898918946121</v>
+        <v>1.256498745555633</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1104,28 +1104,28 @@
         <v>220</v>
       </c>
       <c r="F14">
-        <v>-2.4883911603025</v>
+        <v>2.297964040761683</v>
       </c>
       <c r="G14">
-        <v>463</v>
+        <v>12534</v>
       </c>
       <c r="H14">
-        <v>2.961346715608374</v>
+        <v>3.027284365809551</v>
       </c>
       <c r="I14">
-        <v>-0.8402903811252269</v>
+        <v>0.7590843023255814</v>
       </c>
       <c r="J14">
-        <v>-184.8638838475499</v>
+        <v>166.9985465116279</v>
       </c>
       <c r="K14">
-        <v>-547.4460552665499</v>
+        <v>505.5520889675703</v>
       </c>
       <c r="L14">
-        <v>651.4962774338424</v>
+        <v>666.0025604781013</v>
       </c>
       <c r="M14">
-        <v>-1.356173182364862</v>
+        <v>1.252390402215118</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1145,28 +1145,28 @@
         <v>200</v>
       </c>
       <c r="F15">
-        <v>-2.297533011826005</v>
+        <v>2.256979358839427</v>
       </c>
       <c r="G15">
-        <v>452</v>
+        <v>12363</v>
       </c>
       <c r="H15">
-        <v>2.800753737867542</v>
+        <v>3.014417469316236</v>
       </c>
       <c r="I15">
-        <v>-0.8203266787658802</v>
+        <v>0.7487281976744186</v>
       </c>
       <c r="J15">
-        <v>-164.065335753176</v>
+        <v>149.7456395348837</v>
       </c>
       <c r="K15">
-        <v>-459.506602365201</v>
+        <v>451.3958717678855</v>
       </c>
       <c r="L15">
-        <v>560.1507475735084</v>
+        <v>602.8834938632472</v>
       </c>
       <c r="M15">
-        <v>-1.148766505913003</v>
+        <v>1.128489679419714</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1186,28 +1186,28 @@
         <v>200</v>
       </c>
       <c r="F16">
-        <v>-2.492567732304313</v>
+        <v>2.314213026734496</v>
       </c>
       <c r="G16">
-        <v>458</v>
+        <v>12581</v>
       </c>
       <c r="H16">
-        <v>2.998700481440342</v>
+        <v>3.037301128482633</v>
       </c>
       <c r="I16">
-        <v>-0.8312159709618875</v>
+        <v>0.7619307170542635</v>
       </c>
       <c r="J16">
-        <v>-166.2431941923775</v>
+        <v>152.3861434108527</v>
       </c>
       <c r="K16">
-        <v>-498.5135464608626</v>
+        <v>462.8426053468993</v>
       </c>
       <c r="L16">
-        <v>599.7400962880683</v>
+        <v>607.4602256965267</v>
       </c>
       <c r="M16">
-        <v>-1.246283866152156</v>
+        <v>1.157106513367248</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -1227,28 +1227,28 @@
         <v>10</v>
       </c>
       <c r="F17">
-        <v>-2.493080015861485</v>
+        <v>2.248399197397362</v>
       </c>
       <c r="G17">
-        <v>452</v>
+        <v>12356</v>
       </c>
       <c r="H17">
-        <v>3.039130727300173</v>
+        <v>3.004659076353613</v>
       </c>
       <c r="I17">
-        <v>-0.8203266787658802</v>
+        <v>0.7483042635658915</v>
       </c>
       <c r="J17">
-        <v>-8.203266787658801</v>
+        <v>7.483042635658915</v>
       </c>
       <c r="K17">
-        <v>-24.93080015861484</v>
+        <v>22.48399197397362</v>
       </c>
       <c r="L17">
-        <v>30.39130727300173</v>
+        <v>30.04659076353613</v>
       </c>
       <c r="M17">
-        <v>-1.034628206582516</v>
+        <v>0.9330856669199052</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1268,28 +1268,28 @@
         <v>10</v>
       </c>
       <c r="F18">
-        <v>-2.426951685309187</v>
+        <v>2.30516275307814</v>
       </c>
       <c r="G18">
-        <v>457</v>
+        <v>12543</v>
       </c>
       <c r="H18">
-        <v>2.926149624957029</v>
+        <v>3.034588804817528</v>
       </c>
       <c r="I18">
-        <v>-0.8294010889292196</v>
+        <v>0.7596293604651163</v>
       </c>
       <c r="J18">
-        <v>-8.294010889292196</v>
+        <v>7.596293604651163</v>
       </c>
       <c r="K18">
-        <v>-24.26951685309188</v>
+        <v>23.0516275307814</v>
       </c>
       <c r="L18">
-        <v>29.26149624957029</v>
+        <v>30.34588804817528</v>
       </c>
       <c r="M18">
-        <v>-1.007184949403313</v>
+        <v>0.9566425425274281</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1309,28 +1309,28 @@
         <v>220</v>
       </c>
       <c r="F19">
-        <v>-2.153384448231203</v>
+        <v>2.08819610457396</v>
       </c>
       <c r="G19">
-        <v>314</v>
+        <v>8787</v>
       </c>
       <c r="H19">
-        <v>3.778709652787875</v>
+        <v>3.924012072234576</v>
       </c>
       <c r="I19">
-        <v>-0.5698729582577132</v>
+        <v>0.5321584302325582</v>
       </c>
       <c r="J19">
-        <v>-125.3720508166969</v>
+        <v>117.0748546511628</v>
       </c>
       <c r="K19">
-        <v>-473.7445786108646</v>
+        <v>459.4031430062711</v>
       </c>
       <c r="L19">
-        <v>831.3161236133325</v>
+        <v>863.2826558916069</v>
       </c>
       <c r="M19">
-        <v>-1.173594524286006</v>
+        <v>1.138066876992808</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1350,28 +1350,28 @@
         <v>220</v>
       </c>
       <c r="F20">
-        <v>-2.199822845803439</v>
+        <v>2.023036412313523</v>
       </c>
       <c r="G20">
-        <v>320</v>
+        <v>8604</v>
       </c>
       <c r="H20">
-        <v>3.787819962617796</v>
+        <v>3.882424132975463</v>
       </c>
       <c r="I20">
-        <v>-0.5807622504537205</v>
+        <v>0.5210755813953488</v>
       </c>
       <c r="J20">
-        <v>-127.7676950998185</v>
+        <v>114.6366279069767</v>
       </c>
       <c r="K20">
-        <v>-483.9610260767565</v>
+        <v>445.068010708975</v>
       </c>
       <c r="L20">
-        <v>833.320391775915</v>
+        <v>854.133309254602</v>
       </c>
       <c r="M20">
-        <v>-1.198903450962874</v>
+        <v>1.10255484471087</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1391,28 +1391,28 @@
         <v>220</v>
       </c>
       <c r="F21">
-        <v>-2.306122795336616</v>
+        <v>2.086239480240616</v>
       </c>
       <c r="G21">
-        <v>328</v>
+        <v>8826</v>
       </c>
       <c r="H21">
-        <v>3.874005061678279</v>
+        <v>3.903012270307392</v>
       </c>
       <c r="I21">
-        <v>-0.5952813067150635</v>
+        <v>0.5345203488372093</v>
       </c>
       <c r="J21">
-        <v>-130.961887477314</v>
+        <v>117.5944767441861</v>
       </c>
       <c r="K21">
-        <v>-507.3470149740556</v>
+        <v>458.9726856529355</v>
       </c>
       <c r="L21">
-        <v>852.2811135692215</v>
+        <v>858.6626994676263</v>
       </c>
       <c r="M21">
-        <v>-1.256836923458456</v>
+        <v>1.137000516731136</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1432,28 +1432,28 @@
         <v>220</v>
       </c>
       <c r="F22">
-        <v>-2.337496045084392</v>
+        <v>2.062863355208067</v>
       </c>
       <c r="G22">
-        <v>334</v>
+        <v>8752</v>
       </c>
       <c r="H22">
-        <v>3.856168625273952</v>
+        <v>3.891910388619241</v>
       </c>
       <c r="I22">
-        <v>-0.6061705989110708</v>
+        <v>0.5300387596899225</v>
       </c>
       <c r="J22">
-        <v>-133.3575317604356</v>
+        <v>116.608527131783</v>
       </c>
       <c r="K22">
-        <v>-514.2491299185663</v>
+        <v>453.8299381457746</v>
       </c>
       <c r="L22">
-        <v>848.3570975602694</v>
+        <v>856.2202854962329</v>
       </c>
       <c r="M22">
-        <v>-1.273935344570994</v>
+        <v>1.124260528588396</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1473,28 +1473,28 @@
         <v>200</v>
       </c>
       <c r="F23">
-        <v>-2.198009345985395</v>
+        <v>2.024673286110696</v>
       </c>
       <c r="G23">
-        <v>323</v>
+        <v>8616</v>
       </c>
       <c r="H23">
-        <v>3.749545354916262</v>
+        <v>3.880153818507406</v>
       </c>
       <c r="I23">
-        <v>-0.5862068965517241</v>
+        <v>0.5218023255813954</v>
       </c>
       <c r="J23">
-        <v>-117.2413793103448</v>
+        <v>104.3604651162791</v>
       </c>
       <c r="K23">
-        <v>-439.601869197079</v>
+        <v>404.9346572221392</v>
       </c>
       <c r="L23">
-        <v>749.9090709832524</v>
+        <v>776.0307637014812</v>
       </c>
       <c r="M23">
-        <v>-1.099004672992697</v>
+        <v>1.012336643055348</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1514,28 +1514,28 @@
         <v>200</v>
       </c>
       <c r="F24">
-        <v>-2.05525865472951</v>
+        <v>2.070611369271626</v>
       </c>
       <c r="G24">
-        <v>328</v>
+        <v>8821</v>
       </c>
       <c r="H24">
-        <v>3.452583898646219</v>
+        <v>3.875970403515824</v>
       </c>
       <c r="I24">
-        <v>-0.5952813067150635</v>
+        <v>0.5342175387596899</v>
       </c>
       <c r="J24">
-        <v>-119.0562613430127</v>
+        <v>106.843507751938</v>
       </c>
       <c r="K24">
-        <v>-411.051730945902</v>
+        <v>414.1222738543252</v>
       </c>
       <c r="L24">
-        <v>690.5167797292439</v>
+        <v>775.1940807031648</v>
       </c>
       <c r="M24">
-        <v>-1.027629327364755</v>
+        <v>1.035305684635813</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1555,28 +1555,28 @@
         <v>10</v>
       </c>
       <c r="F25">
-        <v>-2.141365986327962</v>
+        <v>2.085536860022459</v>
       </c>
       <c r="G25">
-        <v>329</v>
+        <v>8799</v>
       </c>
       <c r="H25">
-        <v>3.586299873758989</v>
+        <v>3.913670261699153</v>
       </c>
       <c r="I25">
-        <v>-0.5970961887477314</v>
+        <v>0.5328851744186046</v>
       </c>
       <c r="J25">
-        <v>-5.970961887477314</v>
+        <v>5.328851744186046</v>
       </c>
       <c r="K25">
-        <v>-21.41365986327962</v>
+        <v>20.85536860022459</v>
       </c>
       <c r="L25">
-        <v>35.86299873758988</v>
+        <v>39.13670261699153</v>
       </c>
       <c r="M25">
-        <v>-0.8886668843261043</v>
+        <v>0.8654977969093206</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -1596,28 +1596,28 @@
         <v>10</v>
       </c>
       <c r="F26">
-        <v>-2.092246700059835</v>
+        <v>2.044202063837226</v>
       </c>
       <c r="G26">
-        <v>314</v>
+        <v>8649</v>
       </c>
       <c r="H26">
-        <v>3.671426534181431</v>
+        <v>3.902632035851575</v>
       </c>
       <c r="I26">
-        <v>-0.5698729582577132</v>
+        <v>0.5238008720930233</v>
       </c>
       <c r="J26">
-        <v>-5.698729582577132</v>
+        <v>5.238008720930233</v>
       </c>
       <c r="K26">
-        <v>-20.92246700059835</v>
+        <v>20.44202063837226</v>
       </c>
       <c r="L26">
-        <v>36.71426534181431</v>
+        <v>39.02632035851575</v>
       </c>
       <c r="M26">
-        <v>-0.8682823805248316</v>
+        <v>0.8483438564924488</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -1637,28 +1637,28 @@
         <v>1</v>
       </c>
       <c r="F27">
-        <v>-1.991514095389489</v>
+        <v>1.940248919437728</v>
       </c>
       <c r="G27">
-        <v>309</v>
+        <v>8565</v>
       </c>
       <c r="H27">
-        <v>3.55121121863951</v>
+        <v>3.740500894075396</v>
       </c>
       <c r="I27">
-        <v>-0.5607985480943739</v>
+        <v>0.5187136627906976</v>
       </c>
       <c r="J27">
-        <v>-0.5607985480943739</v>
+        <v>0.5187136627906976</v>
       </c>
       <c r="K27">
-        <v>-1.991514095389489</v>
+        <v>1.940248919437728</v>
       </c>
       <c r="L27">
-        <v>3.55121121863951</v>
+        <v>3.740500894075396</v>
       </c>
       <c r="M27">
-        <v>-1.991514095389489</v>
+        <v>1.940248919437728</v>
       </c>
     </row>
     <row r="28" spans="1:13">
@@ -1678,28 +1678,28 @@
         <v>1</v>
       </c>
       <c r="F28">
-        <v>-1.995893164018269</v>
+        <v>1.937324014345167</v>
       </c>
       <c r="G28">
-        <v>314</v>
+        <v>8533</v>
       </c>
       <c r="H28">
-        <v>3.502347558516135</v>
+        <v>3.748868407930083</v>
       </c>
       <c r="I28">
-        <v>-0.5698729582577132</v>
+        <v>0.5167756782945736</v>
       </c>
       <c r="J28">
-        <v>-0.5698729582577132</v>
+        <v>0.5167756782945736</v>
       </c>
       <c r="K28">
-        <v>-1.995893164018269</v>
+        <v>1.937324014345167</v>
       </c>
       <c r="L28">
-        <v>3.502347558516135</v>
+        <v>3.748868407930083</v>
       </c>
       <c r="M28">
-        <v>-1.995893164018269</v>
+        <v>1.937324014345167</v>
       </c>
     </row>
     <row r="29" spans="1:13">
@@ -1719,28 +1719,28 @@
         <v>1</v>
       </c>
       <c r="F29">
-        <v>-1.92646504535691</v>
+        <v>1.898826256484584</v>
       </c>
       <c r="G29">
-        <v>307</v>
+        <v>8427</v>
       </c>
       <c r="H29">
-        <v>3.457596872936994</v>
+        <v>3.720590856422624</v>
       </c>
       <c r="I29">
-        <v>-0.5571687840290381</v>
+        <v>0.5103561046511628</v>
       </c>
       <c r="J29">
-        <v>-0.5571687840290381</v>
+        <v>0.5103561046511628</v>
       </c>
       <c r="K29">
-        <v>-1.92646504535691</v>
+        <v>1.898826256484584</v>
       </c>
       <c r="L29">
-        <v>3.457596872936994</v>
+        <v>3.720590856422624</v>
       </c>
       <c r="M29">
-        <v>-1.92646504535691</v>
+        <v>1.898826256484584</v>
       </c>
     </row>
     <row r="30" spans="1:13">
@@ -1760,28 +1760,28 @@
         <v>1</v>
       </c>
       <c r="F30">
-        <v>-2.048907281457708</v>
+        <v>1.898236977310992</v>
       </c>
       <c r="G30">
-        <v>270</v>
+        <v>8353</v>
       </c>
       <c r="H30">
-        <v>4.181288563271099</v>
+        <v>3.752387042901843</v>
       </c>
       <c r="I30">
-        <v>-0.4900181488203267</v>
+        <v>0.505874515503876</v>
       </c>
       <c r="J30">
-        <v>-0.4900181488203267</v>
+        <v>0.505874515503876</v>
       </c>
       <c r="K30">
-        <v>-2.048907281457708</v>
+        <v>1.898236977310992</v>
       </c>
       <c r="L30">
-        <v>4.181288563271099</v>
+        <v>3.752387042901843</v>
       </c>
       <c r="M30">
-        <v>-2.048907281457708</v>
+        <v>1.898236977310992</v>
       </c>
     </row>
     <row r="31" spans="1:13">
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="F31">
-        <v>-1.934346706739444</v>
+        <v>1.924352003958699</v>
       </c>
       <c r="G31">
-        <v>267</v>
+        <v>8504</v>
       </c>
       <c r="H31">
-        <v>3.991854065218854</v>
+        <v>3.736465226877475</v>
       </c>
       <c r="I31">
-        <v>-0.484573502722323</v>
+        <v>0.5150193798449613</v>
       </c>
       <c r="J31">
-        <v>-0.484573502722323</v>
+        <v>0.5150193798449613</v>
       </c>
       <c r="K31">
-        <v>-1.934346706739444</v>
+        <v>1.924352003958699</v>
       </c>
       <c r="L31">
-        <v>3.991854065218854</v>
+        <v>3.736465226877475</v>
       </c>
       <c r="M31">
-        <v>-1.934346706739444</v>
+        <v>1.924352003958699</v>
       </c>
     </row>
     <row r="32" spans="1:13">
@@ -1842,28 +1842,28 @@
         <v>1</v>
       </c>
       <c r="F32">
-        <v>-1.954718164151016</v>
+        <v>1.867929484217495</v>
       </c>
       <c r="G32">
-        <v>266</v>
+        <v>8299</v>
       </c>
       <c r="H32">
-        <v>4.049059054312819</v>
+        <v>3.71650218621512</v>
       </c>
       <c r="I32">
-        <v>-0.4827586206896552</v>
+        <v>0.5026041666666666</v>
       </c>
       <c r="J32">
-        <v>-0.4827586206896552</v>
+        <v>0.5026041666666666</v>
       </c>
       <c r="K32">
-        <v>-1.954718164151016</v>
+        <v>1.867929484217495</v>
       </c>
       <c r="L32">
-        <v>4.049059054312819</v>
+        <v>3.71650218621512</v>
       </c>
       <c r="M32">
-        <v>-2.932077246226525</v>
+        <v>2.801894226326243</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -1883,28 +1883,28 @@
         <v>220</v>
       </c>
       <c r="F33">
-        <v>-2.194581627569188</v>
+        <v>2.101275527884238</v>
       </c>
       <c r="G33">
-        <v>287</v>
+        <v>8815</v>
       </c>
       <c r="H33">
-        <v>4.213290859897638</v>
+        <v>3.936047818085597</v>
       </c>
       <c r="I33">
-        <v>-0.5208711433756806</v>
+        <v>0.5338541666666666</v>
       </c>
       <c r="J33">
-        <v>-114.5916515426497</v>
+        <v>117.4479166666667</v>
       </c>
       <c r="K33">
-        <v>-482.8079580652213</v>
+        <v>462.2806161345324</v>
       </c>
       <c r="L33">
-        <v>926.9239891774804</v>
+        <v>865.9305199788313</v>
       </c>
       <c r="M33">
-        <v>-1.196046987025207</v>
+        <v>1.14519516269691</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -1924,28 +1924,28 @@
         <v>220</v>
       </c>
       <c r="F34">
-        <v>-2.216363363041346</v>
+        <v>2.112108900725885</v>
       </c>
       <c r="G34">
-        <v>283</v>
+        <v>8797</v>
       </c>
       <c r="H34">
-        <v>4.31525163616884</v>
+        <v>3.964435849583473</v>
       </c>
       <c r="I34">
-        <v>-0.5136116152450091</v>
+        <v>0.5327640503875969</v>
       </c>
       <c r="J34">
-        <v>-112.994555353902</v>
+        <v>117.2080910852713</v>
       </c>
       <c r="K34">
-        <v>-487.5999398690961</v>
+        <v>464.6639581596947</v>
       </c>
       <c r="L34">
-        <v>949.3553599571449</v>
+        <v>872.1758869083641</v>
       </c>
       <c r="M34">
-        <v>-1.207918032857534</v>
+        <v>1.151099350895608</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -1965,28 +1965,28 @@
         <v>220</v>
       </c>
       <c r="F35">
-        <v>-2.275751090658124</v>
+        <v>2.042394785721525</v>
       </c>
       <c r="G35">
-        <v>272</v>
+        <v>8590</v>
       </c>
       <c r="H35">
-        <v>4.610069304972891</v>
+        <v>3.925963061913134</v>
       </c>
       <c r="I35">
-        <v>-0.4936479128856625</v>
+        <v>0.5202277131782945</v>
       </c>
       <c r="J35">
-        <v>-108.6025408348457</v>
+        <v>114.4500968992248</v>
       </c>
       <c r="K35">
-        <v>-500.6652399447873</v>
+        <v>449.3268528587355</v>
       </c>
       <c r="L35">
-        <v>1014.215247094036</v>
+        <v>863.7118736208896</v>
       </c>
       <c r="M35">
-        <v>-1.240284344408678</v>
+        <v>1.113105158218231</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -2006,28 +2006,28 @@
         <v>220</v>
       </c>
       <c r="F36">
-        <v>-2.031871627226038</v>
+        <v>2.093726365531976</v>
       </c>
       <c r="G36">
-        <v>280</v>
+        <v>8815</v>
       </c>
       <c r="H36">
-        <v>3.998433095005525</v>
+        <v>3.921906948118433</v>
       </c>
       <c r="I36">
-        <v>-0.5081669691470054</v>
+        <v>0.5338541666666666</v>
       </c>
       <c r="J36">
-        <v>-111.7967332123412</v>
+        <v>117.4479166666667</v>
       </c>
       <c r="K36">
-        <v>-447.0117579897284</v>
+        <v>460.6198004170346</v>
       </c>
       <c r="L36">
-        <v>879.6552809012154</v>
+        <v>862.8195285860552</v>
       </c>
       <c r="M36">
-        <v>-1.107370036838191</v>
+        <v>1.141080869214927</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -2047,28 +2047,28 @@
         <v>200</v>
       </c>
       <c r="F37">
-        <v>-1.885946827905326</v>
+        <v>2.039864636070305</v>
       </c>
       <c r="G37">
-        <v>272</v>
+        <v>8562</v>
       </c>
       <c r="H37">
-        <v>3.820429052117039</v>
+        <v>3.933922549730539</v>
       </c>
       <c r="I37">
-        <v>-0.4936479128856625</v>
+        <v>0.5185319767441861</v>
       </c>
       <c r="J37">
-        <v>-98.72958257713249</v>
+        <v>103.7063953488372</v>
       </c>
       <c r="K37">
-        <v>-377.1893655810652</v>
+        <v>407.972927214061</v>
       </c>
       <c r="L37">
-        <v>764.0858104234078</v>
+        <v>786.7845099461078</v>
       </c>
       <c r="M37">
-        <v>-0.942973413952663</v>
+        <v>1.019932318035152</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -2088,28 +2088,28 @@
         <v>200</v>
       </c>
       <c r="F38">
-        <v>-1.980267128560189</v>
+        <v>2.081226701097218</v>
       </c>
       <c r="G38">
-        <v>276</v>
+        <v>8795</v>
       </c>
       <c r="H38">
-        <v>3.953359376219797</v>
+        <v>3.907358190849035</v>
       </c>
       <c r="I38">
-        <v>-0.5009074410163339</v>
+        <v>0.5326429263565892</v>
       </c>
       <c r="J38">
-        <v>-100.1814882032668</v>
+        <v>106.5285852713178</v>
       </c>
       <c r="K38">
-        <v>-396.0534257120377</v>
+        <v>416.2453402194436</v>
       </c>
       <c r="L38">
-        <v>790.6718752439594</v>
+        <v>781.4716381698071</v>
       </c>
       <c r="M38">
-        <v>-0.9901335642800944</v>
+        <v>1.040613350548609</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -2129,28 +2129,28 @@
         <v>10</v>
       </c>
       <c r="F39">
-        <v>-2.070484342356054</v>
+        <v>2.032292501703499</v>
       </c>
       <c r="G39">
-        <v>275</v>
+        <v>8619</v>
       </c>
       <c r="H39">
-        <v>4.148497718684312</v>
+        <v>3.893399905804406</v>
       </c>
       <c r="I39">
-        <v>-0.4990925589836661</v>
+        <v>0.521984011627907</v>
       </c>
       <c r="J39">
-        <v>-4.99092558983666</v>
+        <v>5.21984011627907</v>
       </c>
       <c r="K39">
-        <v>-20.70484342356054</v>
+        <v>20.32292501703499</v>
       </c>
       <c r="L39">
-        <v>41.48497718684312</v>
+        <v>38.93399905804407</v>
       </c>
       <c r="M39">
-        <v>-0.8592510020777624</v>
+        <v>0.8434013882069521</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -2167,25 +2167,25 @@
         <v>4779</v>
       </c>
       <c r="J40">
-        <v>-0.6739459424151868</v>
+        <v>0.6329115611582328</v>
       </c>
       <c r="K40">
-        <v>-2.266002848296928</v>
+        <v>2.173290934551199</v>
       </c>
       <c r="L40">
-        <v>3.362291699800677</v>
+        <v>3.433798761037104</v>
       </c>
       <c r="M40">
-        <v>-53.84615377824806</v>
+        <v>51.61616761837485</v>
       </c>
       <c r="N40">
-        <v>49</v>
+        <v>16512</v>
       </c>
       <c r="O40">
         <v>0.02</v>
       </c>
       <c r="P40">
-        <v>0.00509459678458063</v>
+        <v>0.004784208631763763</v>
       </c>
     </row>
   </sheetData>

--- a/MonteCarloResultsBUS4.xlsx
+++ b/MonteCarloResultsBUS4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="61">
   <si>
     <t>Customer type</t>
   </si>
@@ -61,6 +61,12 @@
     <t>calculated beta</t>
   </si>
   <si>
+    <t>EENS 95% CI</t>
+  </si>
+  <si>
+    <t>EENS 99% CI</t>
+  </si>
+  <si>
     <t>LP1</t>
   </si>
   <si>
@@ -185,6 +191,12 @@
   </si>
   <si>
     <t>small user</t>
+  </si>
+  <si>
+    <t>(50.4987964686871, 54.799938720014886)</t>
+  </si>
+  <si>
+    <t>(49.82290268633559, 55.475832502366394)</t>
   </si>
 </sst>
 </file>
@@ -542,13 +554,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P40"/>
+  <dimension ref="A1:R40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:18">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -594,13 +606,19 @@
       <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:16">
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C2">
         <v>0.545</v>
@@ -612,36 +630,36 @@
         <v>220</v>
       </c>
       <c r="F2">
-        <v>2.250458743390199</v>
+        <v>2.288799477429029</v>
       </c>
       <c r="G2">
-        <v>12375</v>
+        <v>16167</v>
       </c>
       <c r="H2">
-        <v>3.002793920877493</v>
+        <v>3.111193005256407</v>
       </c>
       <c r="I2">
-        <v>0.7494549418604651</v>
+        <v>0.7356661812886786</v>
       </c>
       <c r="J2">
-        <v>164.8800872093023</v>
+        <v>161.8465598835093</v>
       </c>
       <c r="K2">
-        <v>495.1009235458438</v>
+        <v>503.5358850343864</v>
       </c>
       <c r="L2">
-        <v>660.6146625930484</v>
+        <v>684.4624611564096</v>
       </c>
       <c r="M2">
-        <v>1.226500015147659</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16">
+        <v>1.247395715198821</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C3">
         <v>0.545</v>
@@ -653,36 +671,36 @@
         <v>220</v>
       </c>
       <c r="F3">
-        <v>2.286883798615791</v>
+        <v>2.349138018721725</v>
       </c>
       <c r="G3">
-        <v>12469</v>
+        <v>16399</v>
       </c>
       <c r="H3">
-        <v>3.028392435860449</v>
+        <v>3.148036898556536</v>
       </c>
       <c r="I3">
-        <v>0.7551477713178295</v>
+        <v>0.7462231525300328</v>
       </c>
       <c r="J3">
-        <v>166.1325096899225</v>
+        <v>164.1690935566072</v>
       </c>
       <c r="K3">
-        <v>503.114435695474</v>
+        <v>516.8103641187796</v>
       </c>
       <c r="L3">
-        <v>666.2463358892987</v>
+        <v>692.5681176824379</v>
       </c>
       <c r="M3">
-        <v>1.246351670245606</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16">
+        <v>1.280280220203341</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C4">
         <v>0.545</v>
@@ -694,36 +712,36 @@
         <v>220</v>
       </c>
       <c r="F4">
-        <v>2.274362911329566</v>
+        <v>2.303132337188917</v>
       </c>
       <c r="G4">
-        <v>12365</v>
+        <v>16173</v>
       </c>
       <c r="H4">
-        <v>3.037143582035891</v>
+        <v>3.129514390778684</v>
       </c>
       <c r="I4">
-        <v>0.7488493217054264</v>
+        <v>0.7359392064069894</v>
       </c>
       <c r="J4">
-        <v>164.7468507751938</v>
+        <v>161.9066254095377</v>
       </c>
       <c r="K4">
-        <v>500.3598404925044</v>
+        <v>506.6891141815618</v>
       </c>
       <c r="L4">
-        <v>668.171588047896</v>
+        <v>688.4931659713104</v>
       </c>
       <c r="M4">
-        <v>1.239527786674613</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16">
+        <v>1.25520712376796</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C5">
         <v>0.545</v>
@@ -735,36 +753,36 @@
         <v>220</v>
       </c>
       <c r="F5">
-        <v>2.32431419155196</v>
+        <v>2.312062703893669</v>
       </c>
       <c r="G5">
-        <v>12566</v>
+        <v>16406</v>
       </c>
       <c r="H5">
-        <v>3.054199899005726</v>
+        <v>3.097030963109062</v>
       </c>
       <c r="I5">
-        <v>0.7610222868217055</v>
+        <v>0.7465416818347288</v>
       </c>
       <c r="J5">
-        <v>167.4249031007752</v>
+        <v>164.2391700036403</v>
       </c>
       <c r="K5">
-        <v>511.3491221414312</v>
+        <v>508.6537948566071</v>
       </c>
       <c r="L5">
-        <v>671.9239777812599</v>
+        <v>681.3468118839935</v>
       </c>
       <c r="M5">
-        <v>1.266751234395818</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16">
+        <v>1.26007417362205</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C6">
         <v>0.5</v>
@@ -776,36 +794,36 @@
         <v>200</v>
       </c>
       <c r="F6">
-        <v>2.32608049785891</v>
+        <v>2.334387154306878</v>
       </c>
       <c r="G6">
-        <v>12574</v>
+        <v>16344</v>
       </c>
       <c r="H6">
-        <v>3.054576203328004</v>
+        <v>3.138796628918744</v>
       </c>
       <c r="I6">
-        <v>0.7615067829457365</v>
+        <v>0.7437204222788496</v>
       </c>
       <c r="J6">
-        <v>152.3013565891473</v>
+        <v>148.7440844557699</v>
       </c>
       <c r="K6">
-        <v>465.216099571782</v>
+        <v>466.8774308613756</v>
       </c>
       <c r="L6">
-        <v>610.9152406656008</v>
+        <v>627.7593257837487</v>
       </c>
       <c r="M6">
-        <v>1.163040248929455</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16">
+        <v>1.167193577153439</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C7">
         <v>0.415</v>
@@ -817,36 +835,36 @@
         <v>10</v>
       </c>
       <c r="F7">
-        <v>2.294061993996041</v>
+        <v>2.364057890998176</v>
       </c>
       <c r="G7">
-        <v>12560</v>
+        <v>16507</v>
       </c>
       <c r="H7">
-        <v>3.015887869813903</v>
+        <v>3.147303338739682</v>
       </c>
       <c r="I7">
-        <v>0.7606589147286822</v>
+        <v>0.7511376046596286</v>
       </c>
       <c r="J7">
-        <v>7.606589147286822</v>
+        <v>7.511376046596286</v>
       </c>
       <c r="K7">
-        <v>22.94061993996041</v>
+        <v>23.64057890998176</v>
       </c>
       <c r="L7">
-        <v>30.15887869813903</v>
+        <v>31.47303338739682</v>
       </c>
       <c r="M7">
-        <v>0.9520357275083569</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16">
+        <v>0.9810840247642432</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C8">
         <v>0.415</v>
@@ -858,36 +876,36 @@
         <v>10</v>
       </c>
       <c r="F8">
-        <v>2.303826623108151</v>
+        <v>2.308495903996086</v>
       </c>
       <c r="G8">
-        <v>12552</v>
+        <v>16366</v>
       </c>
       <c r="H8">
-        <v>3.030655290054317</v>
+        <v>3.0998109486874</v>
       </c>
       <c r="I8">
-        <v>0.7601744186046512</v>
+        <v>0.7447215143793229</v>
       </c>
       <c r="J8">
-        <v>7.601744186046512</v>
+        <v>7.447215143793229</v>
       </c>
       <c r="K8">
-        <v>23.03826623108151</v>
+        <v>23.08495903996086</v>
       </c>
       <c r="L8">
-        <v>30.30655290054317</v>
+        <v>30.998109486874</v>
       </c>
       <c r="M8">
-        <v>0.9560880485898827</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16">
+        <v>0.9580258001583757</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -899,36 +917,36 @@
         <v>1</v>
       </c>
       <c r="F9">
-        <v>2.118560624955769</v>
+        <v>2.13779155396402</v>
       </c>
       <c r="G9">
-        <v>12139</v>
+        <v>15824</v>
       </c>
       <c r="H9">
-        <v>2.881759044342174</v>
+        <v>2.968914761748819</v>
       </c>
       <c r="I9">
-        <v>0.7351623062015504</v>
+        <v>0.720058245358573</v>
       </c>
       <c r="J9">
-        <v>0.7351623062015504</v>
+        <v>0.720058245358573</v>
       </c>
       <c r="K9">
-        <v>2.118560624955769</v>
+        <v>2.13779155396402</v>
       </c>
       <c r="L9">
-        <v>2.881759044342174</v>
+        <v>2.968914761748819</v>
       </c>
       <c r="M9">
-        <v>2.118560624955769</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16">
+        <v>2.13779155396402</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C10">
         <v>1.5</v>
@@ -940,36 +958,36 @@
         <v>1</v>
       </c>
       <c r="F10">
-        <v>2.14372820931401</v>
+        <v>2.194773954555247</v>
       </c>
       <c r="G10">
-        <v>12243</v>
+        <v>16102</v>
       </c>
       <c r="H10">
-        <v>2.891222755222815</v>
+        <v>2.995426184654459</v>
       </c>
       <c r="I10">
-        <v>0.7414607558139535</v>
+        <v>0.732708409173644</v>
       </c>
       <c r="J10">
-        <v>0.7414607558139535</v>
+        <v>0.732708409173644</v>
       </c>
       <c r="K10">
-        <v>2.14372820931401</v>
+        <v>2.194773954555247</v>
       </c>
       <c r="L10">
-        <v>2.891222755222815</v>
+        <v>2.995426184654459</v>
       </c>
       <c r="M10">
-        <v>3.215592313971015</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16">
+        <v>3.29216093183287</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B11" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -981,36 +999,36 @@
         <v>1</v>
       </c>
       <c r="F11">
-        <v>2.151646904642834</v>
+        <v>2.223771496129151</v>
       </c>
       <c r="G11">
-        <v>12285</v>
+        <v>16188</v>
       </c>
       <c r="H11">
-        <v>2.891981578303824</v>
+        <v>3.018878329561046</v>
       </c>
       <c r="I11">
-        <v>0.7440043604651163</v>
+        <v>0.7366217692027667</v>
       </c>
       <c r="J11">
-        <v>0.7440043604651163</v>
+        <v>0.7366217692027667</v>
       </c>
       <c r="K11">
-        <v>2.151646904642834</v>
+        <v>2.223771496129151</v>
       </c>
       <c r="L11">
-        <v>2.891981578303824</v>
+        <v>3.018878329561046</v>
       </c>
       <c r="M11">
-        <v>2.151646904642834</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16">
+        <v>2.223771496129151</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B12" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C12">
         <v>0.545</v>
@@ -1022,36 +1040,36 @@
         <v>220</v>
       </c>
       <c r="F12">
-        <v>2.34345458626213</v>
+        <v>2.325472194264243</v>
       </c>
       <c r="G12">
-        <v>12614</v>
+        <v>16376</v>
       </c>
       <c r="H12">
-        <v>3.067632957694648</v>
+        <v>3.120699617803554</v>
       </c>
       <c r="I12">
-        <v>0.7639292635658915</v>
+        <v>0.7451765562431744</v>
       </c>
       <c r="J12">
-        <v>168.0644379844961</v>
+        <v>163.9388423734983</v>
       </c>
       <c r="K12">
-        <v>515.5600089776686</v>
+        <v>511.6038827381334</v>
       </c>
       <c r="L12">
-        <v>674.8792506928226</v>
+        <v>686.5539159167819</v>
       </c>
       <c r="M12">
-        <v>1.277182749512861</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16">
+        <v>1.267382345874013</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B13" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C13">
         <v>0.545</v>
@@ -1063,36 +1081,36 @@
         <v>220</v>
       </c>
       <c r="F13">
-        <v>2.305502285423179</v>
+        <v>2.338461779785088</v>
       </c>
       <c r="G13">
-        <v>12514</v>
+        <v>16426</v>
       </c>
       <c r="H13">
-        <v>3.042069181469357</v>
+        <v>3.128578842844095</v>
       </c>
       <c r="I13">
-        <v>0.7578730620155039</v>
+        <v>0.7474517655624318</v>
       </c>
       <c r="J13">
-        <v>166.7320736434108</v>
+        <v>164.439388423735</v>
       </c>
       <c r="K13">
-        <v>507.2105027930995</v>
+        <v>514.4615915527194</v>
       </c>
       <c r="L13">
-        <v>669.2552199232587</v>
+        <v>688.2873454257008</v>
       </c>
       <c r="M13">
-        <v>1.256498745555633</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16">
+        <v>1.274461669982873</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B14" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C14">
         <v>0.545</v>
@@ -1104,36 +1122,36 @@
         <v>220</v>
       </c>
       <c r="F14">
-        <v>2.297964040761683</v>
+        <v>2.326345192294136</v>
       </c>
       <c r="G14">
-        <v>12534</v>
+        <v>16373</v>
       </c>
       <c r="H14">
-        <v>3.027284365809551</v>
+        <v>3.122443165324372</v>
       </c>
       <c r="I14">
-        <v>0.7590843023255814</v>
+        <v>0.7450400436840189</v>
       </c>
       <c r="J14">
-        <v>166.9985465116279</v>
+        <v>163.9088096104842</v>
       </c>
       <c r="K14">
-        <v>505.5520889675703</v>
+        <v>511.79594230471</v>
       </c>
       <c r="L14">
-        <v>666.0025604781013</v>
+        <v>686.9374963713618</v>
       </c>
       <c r="M14">
-        <v>1.252390402215118</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16">
+        <v>1.267858129800304</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B15" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C15">
         <v>0.5</v>
@@ -1145,36 +1163,36 @@
         <v>200</v>
       </c>
       <c r="F15">
-        <v>2.256979358839427</v>
+        <v>2.300497468537783</v>
       </c>
       <c r="G15">
-        <v>12363</v>
+        <v>16206</v>
       </c>
       <c r="H15">
-        <v>3.014417469316236</v>
+        <v>3.119568824422209</v>
       </c>
       <c r="I15">
-        <v>0.7487281976744186</v>
+        <v>0.7374408445576993</v>
       </c>
       <c r="J15">
-        <v>149.7456395348837</v>
+        <v>147.4881689115399</v>
       </c>
       <c r="K15">
-        <v>451.3958717678855</v>
+        <v>460.0994937075566</v>
       </c>
       <c r="L15">
-        <v>602.8834938632472</v>
+        <v>623.9137648844418</v>
       </c>
       <c r="M15">
-        <v>1.128489679419714</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16">
+        <v>1.150248734268891</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B16" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C16">
         <v>0.5</v>
@@ -1186,36 +1204,36 @@
         <v>200</v>
       </c>
       <c r="F16">
-        <v>2.314213026734496</v>
+        <v>2.334813813171912</v>
       </c>
       <c r="G16">
-        <v>12581</v>
+        <v>16366</v>
       </c>
       <c r="H16">
-        <v>3.037301128482633</v>
+        <v>3.135150211307951</v>
       </c>
       <c r="I16">
-        <v>0.7619307170542635</v>
+        <v>0.7447215143793229</v>
       </c>
       <c r="J16">
-        <v>152.3861434108527</v>
+        <v>148.9443028758646</v>
       </c>
       <c r="K16">
-        <v>462.8426053468993</v>
+        <v>466.9627626343823</v>
       </c>
       <c r="L16">
-        <v>607.4602256965267</v>
+        <v>627.0300422615903</v>
       </c>
       <c r="M16">
-        <v>1.157106513367248</v>
+        <v>1.167406906585956</v>
       </c>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B17" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C17">
         <v>0.415</v>
@@ -1227,36 +1245,36 @@
         <v>10</v>
       </c>
       <c r="F17">
-        <v>2.248399197397362</v>
+        <v>2.276229104842548</v>
       </c>
       <c r="G17">
-        <v>12356</v>
+        <v>16176</v>
       </c>
       <c r="H17">
-        <v>3.004659076353613</v>
+        <v>3.092384446588764</v>
       </c>
       <c r="I17">
-        <v>0.7483042635658915</v>
+        <v>0.7360757189661449</v>
       </c>
       <c r="J17">
-        <v>7.483042635658915</v>
+        <v>7.360757189661449</v>
       </c>
       <c r="K17">
-        <v>22.48399197397362</v>
+        <v>22.76229104842548</v>
       </c>
       <c r="L17">
-        <v>30.04659076353613</v>
+        <v>30.92384446588764</v>
       </c>
       <c r="M17">
-        <v>0.9330856669199052</v>
+        <v>0.9446350785096574</v>
       </c>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B18" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C18">
         <v>0.415</v>
@@ -1268,36 +1286,36 @@
         <v>10</v>
       </c>
       <c r="F18">
-        <v>2.30516275307814</v>
+        <v>2.353188777367233</v>
       </c>
       <c r="G18">
-        <v>12543</v>
+        <v>16453</v>
       </c>
       <c r="H18">
-        <v>3.034588804817528</v>
+        <v>3.143115332852507</v>
       </c>
       <c r="I18">
-        <v>0.7596293604651163</v>
+        <v>0.7486803785948307</v>
       </c>
       <c r="J18">
-        <v>7.596293604651163</v>
+        <v>7.486803785948307</v>
       </c>
       <c r="K18">
-        <v>23.0516275307814</v>
+        <v>23.53188777367233</v>
       </c>
       <c r="L18">
-        <v>30.34588804817528</v>
+        <v>31.43115332852507</v>
       </c>
       <c r="M18">
-        <v>0.9566425425274281</v>
+        <v>0.9765733426074015</v>
       </c>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B19" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C19">
         <v>0.545</v>
@@ -1309,36 +1327,36 @@
         <v>220</v>
       </c>
       <c r="F19">
-        <v>2.08819610457396</v>
+        <v>2.123146765109679</v>
       </c>
       <c r="G19">
-        <v>8787</v>
+        <v>11747</v>
       </c>
       <c r="H19">
-        <v>3.924012072234576</v>
+        <v>3.97193098749045</v>
       </c>
       <c r="I19">
-        <v>0.5321584302325582</v>
+        <v>0.5345376774663269</v>
       </c>
       <c r="J19">
-        <v>117.0748546511628</v>
+        <v>117.5982890425919</v>
       </c>
       <c r="K19">
-        <v>459.4031430062711</v>
+        <v>467.0922883241295</v>
       </c>
       <c r="L19">
-        <v>863.2826558916069</v>
+        <v>873.8248172478991</v>
       </c>
       <c r="M19">
-        <v>1.138066876992808</v>
+        <v>1.157114986984775</v>
       </c>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B20" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C20">
         <v>0.545</v>
@@ -1350,36 +1368,36 @@
         <v>220</v>
       </c>
       <c r="F20">
-        <v>2.023036412313523</v>
+        <v>2.061480692061452</v>
       </c>
       <c r="G20">
-        <v>8604</v>
+        <v>11439</v>
       </c>
       <c r="H20">
-        <v>3.882424132975463</v>
+        <v>3.960407351057126</v>
       </c>
       <c r="I20">
-        <v>0.5210755813953488</v>
+        <v>0.5205223880597015</v>
       </c>
       <c r="J20">
-        <v>114.6366279069767</v>
+        <v>114.5149253731343</v>
       </c>
       <c r="K20">
-        <v>445.068010708975</v>
+        <v>453.5257522535194</v>
       </c>
       <c r="L20">
-        <v>854.133309254602</v>
+        <v>871.2896172325676</v>
       </c>
       <c r="M20">
-        <v>1.10255484471087</v>
+        <v>1.123506977173491</v>
       </c>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B21" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C21">
         <v>0.545</v>
@@ -1391,36 +1409,36 @@
         <v>220</v>
       </c>
       <c r="F21">
-        <v>2.086239480240616</v>
+        <v>2.103584627195791</v>
       </c>
       <c r="G21">
-        <v>8826</v>
+        <v>11681</v>
       </c>
       <c r="H21">
-        <v>3.903012270307392</v>
+        <v>3.957570051130443</v>
       </c>
       <c r="I21">
-        <v>0.5345203488372093</v>
+        <v>0.5315344011649071</v>
       </c>
       <c r="J21">
-        <v>117.5944767441861</v>
+        <v>116.9375682562796</v>
       </c>
       <c r="K21">
-        <v>458.9726856529355</v>
+        <v>462.788617983074</v>
       </c>
       <c r="L21">
-        <v>858.6626994676263</v>
+        <v>870.6654112486974</v>
       </c>
       <c r="M21">
-        <v>1.137000516731136</v>
+        <v>1.146453621821706</v>
       </c>
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B22" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C22">
         <v>0.545</v>
@@ -1432,36 +1450,36 @@
         <v>220</v>
       </c>
       <c r="F22">
-        <v>2.062863355208067</v>
+        <v>2.130183722536171</v>
       </c>
       <c r="G22">
-        <v>8752</v>
+        <v>11706</v>
       </c>
       <c r="H22">
-        <v>3.891910388619241</v>
+        <v>3.999053262126679</v>
       </c>
       <c r="I22">
-        <v>0.5300387596899225</v>
+        <v>0.5326720058245359</v>
       </c>
       <c r="J22">
-        <v>116.608527131783</v>
+        <v>117.1878412813979</v>
       </c>
       <c r="K22">
-        <v>453.8299381457746</v>
+        <v>468.6404189579577</v>
       </c>
       <c r="L22">
-        <v>856.2202854962329</v>
+        <v>879.7917176678694</v>
       </c>
       <c r="M22">
-        <v>1.124260528588396</v>
+        <v>1.160950128782213</v>
       </c>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B23" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C23">
         <v>0.5</v>
@@ -1473,36 +1491,36 @@
         <v>200</v>
       </c>
       <c r="F23">
-        <v>2.024673286110696</v>
+        <v>2.069354984638551</v>
       </c>
       <c r="G23">
-        <v>8616</v>
+        <v>11497</v>
       </c>
       <c r="H23">
-        <v>3.880153818507406</v>
+        <v>3.955479267845246</v>
       </c>
       <c r="I23">
-        <v>0.5218023255813954</v>
+        <v>0.5231616308700401</v>
       </c>
       <c r="J23">
-        <v>104.3604651162791</v>
+        <v>104.632326174008</v>
       </c>
       <c r="K23">
-        <v>404.9346572221392</v>
+        <v>413.8709969277102</v>
       </c>
       <c r="L23">
-        <v>776.0307637014812</v>
+        <v>791.0958535690492</v>
       </c>
       <c r="M23">
-        <v>1.012336643055348</v>
+        <v>1.034677492319275</v>
       </c>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B24" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C24">
         <v>0.5</v>
@@ -1514,36 +1532,36 @@
         <v>200</v>
       </c>
       <c r="F24">
-        <v>2.070611369271626</v>
+        <v>2.114473727487074</v>
       </c>
       <c r="G24">
-        <v>8821</v>
+        <v>11720</v>
       </c>
       <c r="H24">
-        <v>3.875970403515824</v>
+        <v>3.964818654885319</v>
       </c>
       <c r="I24">
-        <v>0.5342175387596899</v>
+        <v>0.5333090644339279</v>
       </c>
       <c r="J24">
-        <v>106.843507751938</v>
+        <v>106.6618128867856</v>
       </c>
       <c r="K24">
-        <v>414.1222738543252</v>
+        <v>422.8947454974148</v>
       </c>
       <c r="L24">
-        <v>775.1940807031648</v>
+        <v>792.9637309770638</v>
       </c>
       <c r="M24">
-        <v>1.035305684635813</v>
+        <v>1.057236863743537</v>
       </c>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B25" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C25">
         <v>0.415</v>
@@ -1555,36 +1573,36 @@
         <v>10</v>
       </c>
       <c r="F25">
-        <v>2.085536860022459</v>
+        <v>2.154559449981684</v>
       </c>
       <c r="G25">
-        <v>8799</v>
+        <v>11742</v>
       </c>
       <c r="H25">
-        <v>3.913670261699153</v>
+        <v>4.032413428104028</v>
       </c>
       <c r="I25">
-        <v>0.5328851744186046</v>
+        <v>0.5343101565344012</v>
       </c>
       <c r="J25">
-        <v>5.328851744186046</v>
+        <v>5.343101565344011</v>
       </c>
       <c r="K25">
-        <v>20.85536860022459</v>
+        <v>21.54559449981684</v>
       </c>
       <c r="L25">
-        <v>39.13670261699153</v>
+        <v>40.32413428104028</v>
       </c>
       <c r="M25">
-        <v>0.8654977969093206</v>
+        <v>0.894142171742399</v>
       </c>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B26" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C26">
         <v>0.415</v>
@@ -1596,36 +1614,36 @@
         <v>10</v>
       </c>
       <c r="F26">
-        <v>2.044202063837226</v>
+        <v>2.07045324812359</v>
       </c>
       <c r="G26">
-        <v>8649</v>
+        <v>11502</v>
       </c>
       <c r="H26">
-        <v>3.902632035851575</v>
+        <v>3.955858162125197</v>
       </c>
       <c r="I26">
-        <v>0.5238008720930233</v>
+        <v>0.5233891518019658</v>
       </c>
       <c r="J26">
-        <v>5.238008720930233</v>
+        <v>5.233891518019657</v>
       </c>
       <c r="K26">
-        <v>20.44202063837226</v>
+        <v>20.7045324812359</v>
       </c>
       <c r="L26">
-        <v>39.02632035851575</v>
+        <v>39.55858162125197</v>
       </c>
       <c r="M26">
-        <v>0.8483438564924488</v>
+        <v>0.8592380979712899</v>
       </c>
     </row>
     <row r="27" spans="1:13">
       <c r="A27" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B27" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -1637,36 +1655,36 @@
         <v>1</v>
       </c>
       <c r="F27">
-        <v>1.940248919437728</v>
+        <v>1.981760394344859</v>
       </c>
       <c r="G27">
-        <v>8565</v>
+        <v>11344</v>
       </c>
       <c r="H27">
-        <v>3.740500894075396</v>
+        <v>3.839136673670895</v>
       </c>
       <c r="I27">
-        <v>0.5187136627906976</v>
+        <v>0.5161994903531125</v>
       </c>
       <c r="J27">
-        <v>0.5187136627906976</v>
+        <v>0.5161994903531125</v>
       </c>
       <c r="K27">
-        <v>1.940248919437728</v>
+        <v>1.981760394344859</v>
       </c>
       <c r="L27">
-        <v>3.740500894075396</v>
+        <v>3.839136673670895</v>
       </c>
       <c r="M27">
-        <v>1.940248919437728</v>
+        <v>1.981760394344859</v>
       </c>
     </row>
     <row r="28" spans="1:13">
       <c r="A28" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B28" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -1678,36 +1696,36 @@
         <v>1</v>
       </c>
       <c r="F28">
-        <v>1.937324014345167</v>
+        <v>2.004778934152148</v>
       </c>
       <c r="G28">
-        <v>8533</v>
+        <v>11492</v>
       </c>
       <c r="H28">
-        <v>3.748868407930083</v>
+        <v>3.833712309165299</v>
       </c>
       <c r="I28">
-        <v>0.5167756782945736</v>
+        <v>0.5229341099381143</v>
       </c>
       <c r="J28">
-        <v>0.5167756782945736</v>
+        <v>0.5229341099381143</v>
       </c>
       <c r="K28">
-        <v>1.937324014345167</v>
+        <v>2.004778934152148</v>
       </c>
       <c r="L28">
-        <v>3.748868407930083</v>
+        <v>3.833712309165299</v>
       </c>
       <c r="M28">
-        <v>1.937324014345167</v>
+        <v>2.004778934152148</v>
       </c>
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B29" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -1719,36 +1737,36 @@
         <v>1</v>
       </c>
       <c r="F29">
-        <v>1.898826256484584</v>
+        <v>1.940447001897347</v>
       </c>
       <c r="G29">
-        <v>8427</v>
+        <v>11179</v>
       </c>
       <c r="H29">
-        <v>3.720590856422624</v>
+        <v>3.814586574263895</v>
       </c>
       <c r="I29">
-        <v>0.5103561046511628</v>
+        <v>0.5086912995995632</v>
       </c>
       <c r="J29">
-        <v>0.5103561046511628</v>
+        <v>0.5086912995995632</v>
       </c>
       <c r="K29">
-        <v>1.898826256484584</v>
+        <v>1.940447001897347</v>
       </c>
       <c r="L29">
-        <v>3.720590856422624</v>
+        <v>3.814586574263895</v>
       </c>
       <c r="M29">
-        <v>1.898826256484584</v>
+        <v>1.940447001897347</v>
       </c>
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B30" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -1760,36 +1778,36 @@
         <v>1</v>
       </c>
       <c r="F30">
-        <v>1.898236977310992</v>
+        <v>1.939473328760741</v>
       </c>
       <c r="G30">
-        <v>8353</v>
+        <v>11160</v>
       </c>
       <c r="H30">
-        <v>3.752387042901843</v>
+        <v>3.819163608677961</v>
       </c>
       <c r="I30">
-        <v>0.505874515503876</v>
+        <v>0.5078267200582454</v>
       </c>
       <c r="J30">
-        <v>0.505874515503876</v>
+        <v>0.5078267200582454</v>
       </c>
       <c r="K30">
-        <v>1.898236977310992</v>
+        <v>1.939473328760741</v>
       </c>
       <c r="L30">
-        <v>3.752387042901843</v>
+        <v>3.819163608677961</v>
       </c>
       <c r="M30">
-        <v>1.898236977310992</v>
+        <v>1.939473328760741</v>
       </c>
     </row>
     <row r="31" spans="1:13">
       <c r="A31" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B31" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -1801,36 +1819,36 @@
         <v>1</v>
       </c>
       <c r="F31">
-        <v>1.924352003958699</v>
+        <v>1.989990560565909</v>
       </c>
       <c r="G31">
-        <v>8504</v>
+        <v>11406</v>
       </c>
       <c r="H31">
-        <v>3.736465226877475</v>
+        <v>3.834125246273576</v>
       </c>
       <c r="I31">
-        <v>0.5150193798449613</v>
+        <v>0.5190207499089916</v>
       </c>
       <c r="J31">
-        <v>0.5150193798449613</v>
+        <v>0.5190207499089916</v>
       </c>
       <c r="K31">
-        <v>1.924352003958699</v>
+        <v>1.989990560565909</v>
       </c>
       <c r="L31">
-        <v>3.736465226877475</v>
+        <v>3.834125246273576</v>
       </c>
       <c r="M31">
-        <v>1.924352003958699</v>
+        <v>1.989990560565909</v>
       </c>
     </row>
     <row r="32" spans="1:13">
       <c r="A32" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B32" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C32">
         <v>1.5</v>
@@ -1842,36 +1860,36 @@
         <v>1</v>
       </c>
       <c r="F32">
-        <v>1.867929484217495</v>
+        <v>1.933678469572113</v>
       </c>
       <c r="G32">
-        <v>8299</v>
+        <v>11163</v>
       </c>
       <c r="H32">
-        <v>3.71650218621512</v>
+        <v>3.806729198899646</v>
       </c>
       <c r="I32">
-        <v>0.5026041666666666</v>
+        <v>0.5079632326174008</v>
       </c>
       <c r="J32">
-        <v>0.5026041666666666</v>
+        <v>0.5079632326174008</v>
       </c>
       <c r="K32">
-        <v>1.867929484217495</v>
+        <v>1.933678469572113</v>
       </c>
       <c r="L32">
-        <v>3.71650218621512</v>
+        <v>3.806729198899646</v>
       </c>
       <c r="M32">
-        <v>2.801894226326243</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16">
+        <v>2.900517704358169</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18">
       <c r="A33" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B33" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C33">
         <v>0.545</v>
@@ -1883,36 +1901,36 @@
         <v>220</v>
       </c>
       <c r="F33">
-        <v>2.101275527884238</v>
+        <v>2.138917983530538</v>
       </c>
       <c r="G33">
-        <v>8815</v>
+        <v>11761</v>
       </c>
       <c r="H33">
-        <v>3.936047818085597</v>
+        <v>3.996672188255003</v>
       </c>
       <c r="I33">
-        <v>0.5338541666666666</v>
+        <v>0.535174736075719</v>
       </c>
       <c r="J33">
-        <v>117.4479166666667</v>
+        <v>117.7384419366582</v>
       </c>
       <c r="K33">
-        <v>462.2806161345324</v>
+        <v>470.5619563767183</v>
       </c>
       <c r="L33">
-        <v>865.9305199788313</v>
+        <v>879.2678814161007</v>
       </c>
       <c r="M33">
-        <v>1.14519516269691</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16">
+        <v>1.165710301024143</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18">
       <c r="A34" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B34" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C34">
         <v>0.545</v>
@@ -1924,36 +1942,36 @@
         <v>220</v>
       </c>
       <c r="F34">
-        <v>2.112108900725885</v>
+        <v>2.13297544800255</v>
       </c>
       <c r="G34">
-        <v>8797</v>
+        <v>11730</v>
       </c>
       <c r="H34">
-        <v>3.964435849583473</v>
+        <v>3.996101316735213</v>
       </c>
       <c r="I34">
-        <v>0.5327640503875969</v>
+        <v>0.5337641062977794</v>
       </c>
       <c r="J34">
-        <v>117.2080910852713</v>
+        <v>117.4281033855115</v>
       </c>
       <c r="K34">
-        <v>464.6639581596947</v>
+        <v>469.2545985605611</v>
       </c>
       <c r="L34">
-        <v>872.1758869083641</v>
+        <v>879.1422896817468</v>
       </c>
       <c r="M34">
-        <v>1.151099350895608</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16">
+        <v>1.16247161916139</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18">
       <c r="A35" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B35" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C35">
         <v>0.545</v>
@@ -1965,36 +1983,36 @@
         <v>220</v>
       </c>
       <c r="F35">
-        <v>2.042394785721525</v>
+        <v>2.076326848683585</v>
       </c>
       <c r="G35">
-        <v>8590</v>
+        <v>11486</v>
       </c>
       <c r="H35">
-        <v>3.925963061913134</v>
+        <v>3.972606549422816</v>
       </c>
       <c r="I35">
-        <v>0.5202277131782945</v>
+        <v>0.5226610848198034</v>
       </c>
       <c r="J35">
-        <v>114.4500968992248</v>
+        <v>114.9854386603568</v>
       </c>
       <c r="K35">
-        <v>449.3268528587355</v>
+        <v>456.7919067103887</v>
       </c>
       <c r="L35">
-        <v>863.7118736208896</v>
+        <v>873.9734408730195</v>
       </c>
       <c r="M35">
-        <v>1.113105158218231</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16">
+        <v>1.131598132532554</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18">
       <c r="A36" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B36" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C36">
         <v>0.545</v>
@@ -2006,36 +2024,36 @@
         <v>220</v>
       </c>
       <c r="F36">
-        <v>2.093726365531976</v>
+        <v>2.12669777951851</v>
       </c>
       <c r="G36">
-        <v>8815</v>
+        <v>11719</v>
       </c>
       <c r="H36">
-        <v>3.921906948118433</v>
+        <v>3.988080075322023</v>
       </c>
       <c r="I36">
-        <v>0.5338541666666666</v>
+        <v>0.5332635602475427</v>
       </c>
       <c r="J36">
-        <v>117.4479166666667</v>
+        <v>117.3179832544594</v>
       </c>
       <c r="K36">
-        <v>460.6198004170346</v>
+        <v>467.8735114940723</v>
       </c>
       <c r="L36">
-        <v>862.8195285860552</v>
+        <v>877.377616570845</v>
       </c>
       <c r="M36">
-        <v>1.141080869214927</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16">
+        <v>1.159050289837588</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18">
       <c r="A37" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B37" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C37">
         <v>0.5</v>
@@ -2047,36 +2065,36 @@
         <v>200</v>
       </c>
       <c r="F37">
-        <v>2.039864636070305</v>
+        <v>2.092978466538161</v>
       </c>
       <c r="G37">
-        <v>8562</v>
+        <v>11539</v>
       </c>
       <c r="H37">
-        <v>3.933922549730539</v>
+        <v>3.986072864255362</v>
       </c>
       <c r="I37">
-        <v>0.5185319767441861</v>
+        <v>0.5250728066982162</v>
       </c>
       <c r="J37">
-        <v>103.7063953488372</v>
+        <v>105.0145613396432</v>
       </c>
       <c r="K37">
-        <v>407.972927214061</v>
+        <v>418.5956933076322</v>
       </c>
       <c r="L37">
-        <v>786.7845099461078</v>
+        <v>797.2145728510725</v>
       </c>
       <c r="M37">
-        <v>1.019932318035152</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16">
+        <v>1.04648923326908</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18">
       <c r="A38" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B38" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C38">
         <v>0.5</v>
@@ -2088,36 +2106,36 @@
         <v>200</v>
       </c>
       <c r="F38">
-        <v>2.081226701097218</v>
+        <v>2.148208800140189</v>
       </c>
       <c r="G38">
-        <v>8795</v>
+        <v>11779</v>
       </c>
       <c r="H38">
-        <v>3.907358190849035</v>
+        <v>4.007898513615824</v>
       </c>
       <c r="I38">
-        <v>0.5326429263565892</v>
+        <v>0.5359938114306516</v>
       </c>
       <c r="J38">
-        <v>106.5285852713178</v>
+        <v>107.1987622861303</v>
       </c>
       <c r="K38">
-        <v>416.2453402194436</v>
+        <v>429.6417600280378</v>
       </c>
       <c r="L38">
-        <v>781.4716381698071</v>
+        <v>801.5797027231649</v>
       </c>
       <c r="M38">
-        <v>1.040613350548609</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16">
+        <v>1.074104400070095</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18">
       <c r="A39" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B39" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C39">
         <v>0.415</v>
@@ -2129,33 +2147,33 @@
         <v>10</v>
       </c>
       <c r="F39">
-        <v>2.032292501703499</v>
+        <v>2.088633162806648</v>
       </c>
       <c r="G39">
-        <v>8619</v>
+        <v>11481</v>
       </c>
       <c r="H39">
-        <v>3.893399905804406</v>
+        <v>3.997892377479217</v>
       </c>
       <c r="I39">
-        <v>0.521984011627907</v>
+        <v>0.5224335638878776</v>
       </c>
       <c r="J39">
-        <v>5.21984011627907</v>
+        <v>5.224335638878776</v>
       </c>
       <c r="K39">
-        <v>20.32292501703499</v>
+        <v>20.88633162806648</v>
       </c>
       <c r="L39">
-        <v>38.93399905804407</v>
+        <v>39.97892377479217</v>
       </c>
       <c r="M39">
-        <v>0.8434013882069521</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16">
+        <v>0.8667827625647588</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18">
       <c r="A40" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C40">
         <v>24.58000000000001</v>
@@ -2167,25 +2185,31 @@
         <v>4779</v>
       </c>
       <c r="J40">
-        <v>0.6329115611582328</v>
+        <v>0.6272694296496327</v>
       </c>
       <c r="K40">
-        <v>2.173290934551199</v>
+        <v>2.206219951765333</v>
       </c>
       <c r="L40">
-        <v>3.433798761037104</v>
+        <v>3.517180732046257</v>
       </c>
       <c r="M40">
-        <v>51.61616761837485</v>
+        <v>52.64804582750083</v>
       </c>
       <c r="N40">
-        <v>16512</v>
+        <v>21976</v>
       </c>
       <c r="O40">
         <v>0.02</v>
       </c>
       <c r="P40">
-        <v>0.004784208631763763</v>
+        <v>0.02084032945293676</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>59</v>
+      </c>
+      <c r="R40" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
